--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Instances_Fold_16.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Instances_Fold_16.xlsx
@@ -433,7 +433,7 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -444,7 +444,7 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -455,7 +455,7 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -466,7 +466,7 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>

--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Instances_Fold_16.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Instances_Fold_16.xlsx
@@ -466,7 +466,7 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
